--- a/BalanceSheet/XEL_bal.xlsx
+++ b/BalanceSheet/XEL_bal.xlsx
@@ -4589,7 +4589,7 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>22968000000.0</v>
+        <v>21929000000.0</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>22107000000.0</v>
@@ -4604,7 +4604,7 @@
         <v>20894000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>20225000000.0</v>
+        <v>18456000000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>17741000000.0</v>
@@ -4731,7 +4731,7 @@
         <v>21183000000.0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>20528000000.0</v>
+        <v>18704000000.0</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>18605000000.0</v>
